--- a/Данные_на_проверку.xlsx
+++ b/Данные_на_проверку.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
   <si>
     <t>№ п/п</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Семёнов</t>
   </si>
   <si>
-    <t>Артём</t>
-  </si>
-  <si>
     <t>11.</t>
   </si>
   <si>
@@ -213,12 +210,6 @@
   </si>
   <si>
     <t xml:space="preserve">      Фёдоров</t>
-  </si>
-  <si>
-    <t>Евгѐньевич</t>
-  </si>
-  <si>
-    <t>Абасёов</t>
   </si>
   <si>
     <t>с.  Медведовка Краснодарский край Россия</t>
@@ -242,13 +233,34 @@
   <si>
     <t xml:space="preserve">
 Алексеевич</t>
+  </si>
+  <si>
+    <t>г. Гро-зный, Чеченская республика</t>
+  </si>
+  <si>
+    <t>с. Мат - ынка Абхазкая АССР</t>
+  </si>
+  <si>
+    <t>с. Маты- нка Абхазкая АССР</t>
+  </si>
+  <si>
+    <t>с. Мат -ынка Абхазкая АССР</t>
+  </si>
+  <si>
+    <t>Евгенье́вич</t>
+  </si>
+  <si>
+    <t>Организация</t>
+  </si>
+  <si>
+    <t>ИП</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +297,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -335,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -366,6 +386,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,12 +687,13 @@
     <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
     <col min="5" max="5" width="24.77734375" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -687,13 +715,16 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>10</v>
@@ -705,7 +736,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>12</v>
@@ -713,16 +744,19 @@
       <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>15</v>
@@ -731,7 +765,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>17</v>
@@ -739,16 +773,19 @@
       <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>21</v>
@@ -760,21 +797,24 @@
         <v>36819</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>23</v>
@@ -791,37 +831,43 @@
       <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="31.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E6" s="4">
         <v>36819</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
@@ -843,16 +889,19 @@
       <c r="G7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>32</v>
@@ -869,11 +918,14 @@
       <c r="G8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
@@ -890,16 +942,17 @@
         <v>32765</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H9" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
@@ -910,31 +963,32 @@
         <v>39</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="C11" s="12"/>
       <c r="D11" s="12" t="s">
         <v>24</v>
       </c>
@@ -945,13 +999,16 @@
       <c r="G11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>14</v>
@@ -960,7 +1017,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E12" s="4">
         <v>32765</v>
@@ -971,13 +1028,16 @@
       <c r="G12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>20</v>
@@ -989,7 +1049,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>12</v>
@@ -997,13 +1057,16 @@
       <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H13" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
@@ -1012,10 +1075,11 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
@@ -1024,10 +1088,11 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
@@ -1036,10 +1101,11 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="12"/>
@@ -1048,10 +1114,11 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
@@ -1060,10 +1127,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
@@ -1072,10 +1140,11 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
@@ -1084,10 +1153,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
@@ -1096,10 +1166,11 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
@@ -1108,10 +1179,11 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
@@ -1120,10 +1192,11 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
@@ -1132,10 +1205,11 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
@@ -1144,8 +1218,9 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1154,8 +1229,9 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1164,8 +1240,9 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1174,8 +1251,9 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1184,8 +1262,9 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1194,8 +1273,9 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1204,8 +1284,9 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1214,8 +1295,9 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1224,8 +1306,9 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1234,8 +1317,9 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1244,8 +1328,9 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1254,8 +1339,9 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1264,6 +1350,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Данные_на_проверку.xlsx
+++ b/Данные_на_проверку.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="84">
   <si>
     <t>№ п/п</t>
   </si>
@@ -177,18 +177,6 @@
   </si>
   <si>
     <t>20.</t>
-  </si>
-  <si>
-    <t>21.</t>
-  </si>
-  <si>
-    <t>22.</t>
-  </si>
-  <si>
-    <t>23.</t>
-  </si>
-  <si>
-    <t>24.</t>
   </si>
   <si>
     <t>2.</t>
@@ -254,6 +242,42 @@
   </si>
   <si>
     <t>ИП</t>
+  </si>
+  <si>
+    <t>Гусев</t>
+  </si>
+  <si>
+    <t>Тимур</t>
+  </si>
+  <si>
+    <t>Киселёв</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Алексеевич</t>
+  </si>
+  <si>
+    <t>Александ</t>
+  </si>
+  <si>
+    <t>Григорьев</t>
+  </si>
+  <si>
+    <t>Романов</t>
+  </si>
+  <si>
+    <t>Борисов</t>
+  </si>
+  <si>
+    <t>Эдуаард</t>
+  </si>
+  <si>
+    <t>Константтин</t>
+  </si>
+  <si>
+    <t>Ярослаав</t>
   </si>
 </sst>
 </file>
@@ -355,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -392,6 +416,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -676,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,7 +743,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -724,7 +751,7 @@
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>10</v>
@@ -736,7 +763,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>12</v>
@@ -745,7 +772,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>9</v>
@@ -753,7 +780,7 @@
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>14</v>
@@ -765,7 +792,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>17</v>
@@ -774,7 +801,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>9</v>
@@ -785,7 +812,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>21</v>
@@ -797,13 +824,13 @@
         <v>36819</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>9</v>
@@ -814,7 +841,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>23</v>
@@ -832,7 +859,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>9</v>
@@ -843,25 +870,25 @@
         <v>25</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E6" s="4">
         <v>36819</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>9</v>
@@ -890,7 +917,7 @@
         <v>18</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>9</v>
@@ -901,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>32</v>
@@ -919,7 +946,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>9</v>
@@ -942,13 +969,13 @@
         <v>32765</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I9" s="15"/>
     </row>
@@ -963,19 +990,19 @@
         <v>39</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>9</v>
@@ -1000,7 +1027,7 @@
         <v>18</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>9</v>
@@ -1017,7 +1044,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E12" s="4">
         <v>32765</v>
@@ -1029,7 +1056,7 @@
         <v>18</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>9</v>
@@ -1049,7 +1076,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>12</v>
@@ -1058,120 +1085,246 @@
         <v>13</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="4">
+        <v>36819</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="4">
+        <v>32765</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3634</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3634</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3999</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="4">
+        <v>36819</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="4">
+        <v>37148</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="1"/>
+      <c r="B21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="4">
+        <v>37549</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="A22" s="7"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1182,9 +1335,7 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="A23" s="7"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1195,9 +1346,7 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="A24" s="7"/>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1208,9 +1357,7 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="A25" s="7"/>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>

--- a/Данные_на_проверку.xlsx
+++ b/Данные_на_проверку.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="91">
   <si>
     <t>№ п/п</t>
   </si>
@@ -278,6 +278,27 @@
   </si>
   <si>
     <t>Ярослаав</t>
+  </si>
+  <si>
+    <t>20.10.1899</t>
+  </si>
+  <si>
+    <t>21.</t>
+  </si>
+  <si>
+    <t>Франц</t>
+  </si>
+  <si>
+    <t>22.</t>
+  </si>
+  <si>
+    <t>Людовиг</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>Македонский</t>
   </si>
 </sst>
 </file>
@@ -703,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1104,8 +1125,8 @@
       <c r="D14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="4">
-        <v>36819</v>
+      <c r="E14" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>12</v>
@@ -1323,38 +1344,92 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="1"/>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="4">
+        <v>36783</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="4">
+        <v>36783</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="4">
+        <v>36783</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>

--- a/Данные_на_проверку.xlsx
+++ b/Данные_на_проверку.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="95">
   <si>
     <t>№ п/п</t>
   </si>
@@ -299,6 +299,18 @@
   </si>
   <si>
     <t>Македонский</t>
+  </si>
+  <si>
+    <t>Наполеон</t>
+  </si>
+  <si>
+    <t>24.</t>
+  </si>
+  <si>
+    <t>25.</t>
+  </si>
+  <si>
+    <t>Бонапарт</t>
   </si>
 </sst>
 </file>
@@ -724,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1431,27 +1443,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="1"/>
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="4">
+        <v>36784</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="4">
+        <v>36785</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>

--- a/Данные_на_проверку.xlsx
+++ b/Данные_на_проверку.xlsx
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1248,13 +1248,13 @@
         <v>77</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="4">
-        <v>3999</v>
+        <v>3634</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>17</v>
